--- a/Input/AHB_config.xlsx
+++ b/Input/AHB_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="Decoder_config" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="52">
   <si>
     <t>AHB_Gen Decoder Setting</t>
   </si>
@@ -34,21 +34,9 @@
     <t>SLAVE_NUM</t>
   </si>
   <si>
-    <t>FSM_TYPE</t>
-  </si>
-  <si>
-    <t>GLITCH_FREE</t>
-  </si>
-  <si>
     <t>OUT_FF</t>
   </si>
   <si>
-    <t>NON_DEC</t>
-  </si>
-  <si>
-    <t>DEC</t>
-  </si>
-  <si>
     <t>DECODER_IDENTIFY</t>
   </si>
   <si>
@@ -85,9 +73,6 @@
     <t>master_2</t>
   </si>
   <si>
-    <t>master_7</t>
-  </si>
-  <si>
     <t>kemee</t>
   </si>
   <si>
@@ -191,6 +176,12 @@
   </si>
   <si>
     <t>PRIOR_LEVEL</t>
+  </si>
+  <si>
+    <t>IN_FF</t>
+  </si>
+  <si>
+    <t>master_3</t>
   </si>
 </sst>
 </file>
@@ -604,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +621,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B3" s="4">
         <v>32</v>
@@ -638,10 +629,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -650,7 +641,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
@@ -659,304 +650,258 @@
         <v>6</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
         <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="10">
+        <v>9</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="A12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="B14" s="10">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="10">
-        <v>4</v>
+      <c r="C15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>13</v>
+      <c r="A17" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>17</v>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="A19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B20" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="10">
-        <v>3</v>
-      </c>
+      <c r="B23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>16</v>
+        <v>50</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E25" s="6"/>
+      <c r="A25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>12</v>
+      <c r="B29" s="13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="10">
-        <v>2</v>
+        <v>50</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="13" t="s">
         <v>13</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -982,7 +927,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -990,102 +935,102 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1097,7 +1042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
@@ -1110,7 +1055,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1119,15 +1064,15 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B4" s="11">
         <v>4</v>
@@ -1135,7 +1080,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B5" s="11">
         <v>2</v>
@@ -1143,42 +1088,42 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
         <v>48</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B11" s="11">
         <v>3</v>
@@ -1186,7 +1131,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B12" s="11">
         <v>3</v>
@@ -1194,39 +1139,39 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B18" s="11">
         <v>2</v>
@@ -1234,7 +1179,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B19" s="11">
         <v>2</v>
@@ -1242,39 +1187,39 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B25" s="11">
         <v>2</v>
@@ -1282,7 +1227,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B26" s="11">
         <v>2</v>
@@ -1290,39 +1235,39 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B32" s="11">
         <v>1</v>
@@ -1330,7 +1275,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B33" s="11">
         <v>2</v>
@@ -1338,39 +1283,39 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B39" s="11">
         <v>4</v>
@@ -1378,7 +1323,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B40" s="11">
         <v>3</v>
@@ -1386,39 +1331,39 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B46" s="11">
         <v>1</v>
@@ -1426,7 +1371,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B47" s="11">
         <v>2</v>
@@ -1434,39 +1379,39 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B53" s="11">
         <v>2</v>
@@ -1474,7 +1419,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B54" s="11">
         <v>2</v>
@@ -1482,26 +1427,26 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Input/AHB_config.xlsx
+++ b/Input/AHB_config.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Decoder_config" sheetId="1" r:id="rId1"/>
     <sheet name="Slave_address_map" sheetId="2" r:id="rId2"/>
     <sheet name="Arbiter_config" sheetId="3" r:id="rId3"/>
+    <sheet name="connect" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="54">
   <si>
     <t>AHB_Gen Decoder Setting</t>
   </si>
@@ -182,13 +183,20 @@
   </si>
   <si>
     <t>master_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           MASTER
+SLAVE</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,8 +218,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,8 +264,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -296,11 +330,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color theme="7"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -315,6 +366,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,28 +1118,28 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B4" s="11" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="11">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1117,9 +1173,6 @@
       <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -1128,250 +1181,245 @@
       <c r="B11" s="11">
         <v>3</v>
       </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="11">
-        <v>3</v>
+        <v>46</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="4" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>11</v>
+      <c r="A17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="11">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="11">
-        <v>2</v>
+        <v>46</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="11">
-        <v>2</v>
+        <v>44</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="B24" s="11" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="11">
-        <v>2</v>
+        <v>44</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>6</v>
+        <v>45</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>8</v>
+      <c r="A28" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>8</v>
+        <v>47</v>
+      </c>
+      <c r="B29" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>17</v>
+      <c r="A31" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="11">
-        <v>2</v>
+        <v>45</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>46</v>
+      <c r="A34" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>8</v>
+        <v>47</v>
+      </c>
+      <c r="B35" s="11">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="B38" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="11">
-        <v>3</v>
+      <c r="B40" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>8</v>
+        <v>47</v>
+      </c>
+      <c r="B41" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>6</v>
+        <v>46</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="B44" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="11">
-        <v>1</v>
+      <c r="B46" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B47" s="11">
         <v>2</v>
@@ -1390,7 +1438,7 @@
         <v>44</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1398,58 +1446,141 @@
         <v>45</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B53" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B54" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B57" s="4" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Input/AHB_config.xlsx
+++ b/Input/AHB_config.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Decoder_config" sheetId="1" r:id="rId1"/>
     <sheet name="Slave_address_map" sheetId="2" r:id="rId2"/>
     <sheet name="Arbiter_config" sheetId="3" r:id="rId3"/>
-    <sheet name="connect" sheetId="4" r:id="rId4"/>
+    <sheet name="Crossbar" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="55">
   <si>
     <t>AHB_Gen Decoder Setting</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO </t>
   </si>
   <si>
     <t>NO</t>
@@ -189,7 +186,13 @@
 SLAVE</t>
   </si>
   <si>
-    <t>y</t>
+    <t>AHB Crossbar</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -227,7 +230,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,6 +282,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,13 +373,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,7 +675,7 @@
     <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -675,15 +684,18 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -695,269 +707,193 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B24" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="B25" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="C25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="H25" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -983,7 +919,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -991,102 +927,102 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1098,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,7 +1047,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1120,7 +1056,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="11">
         <v>2</v>
@@ -1128,7 +1064,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>5</v>
@@ -1136,7 +1072,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="11">
         <v>4</v>
@@ -1144,66 +1080,66 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>6</v>
@@ -1211,15 +1147,15 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="11">
         <v>2</v>
@@ -1227,15 +1163,15 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>6</v>
@@ -1243,23 +1179,23 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" s="11">
         <v>2</v>
@@ -1267,7 +1203,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>6</v>
@@ -1275,31 +1211,31 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" s="11">
         <v>1</v>
@@ -1307,7 +1243,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>6</v>
@@ -1315,31 +1251,31 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="11">
         <v>4</v>
@@ -1347,15 +1283,15 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>6</v>
@@ -1363,23 +1299,23 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="11">
         <v>1</v>
@@ -1387,39 +1323,39 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="11">
         <v>2</v>
@@ -1427,23 +1363,23 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>6</v>
@@ -1456,10 +1392,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,116 +1403,145 @@
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="16" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="16" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="B6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="C7" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="C9" s="16" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
+      <c r="D9" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="D10" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>53</v>
+      <c r="E10" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Input/AHB_config.xlsx
+++ b/Input/AHB_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="Decoder_config" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="53">
   <si>
     <t>AHB_Gen Decoder Setting</t>
   </si>
@@ -35,9 +35,6 @@
     <t>SLAVE_NUM</t>
   </si>
   <si>
-    <t>OUT_FF</t>
-  </si>
-  <si>
     <t>DECODER_IDENTIFY</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
   </si>
   <si>
     <t>PRIOR_LEVEL</t>
-  </si>
-  <si>
-    <t>IN_FF</t>
   </si>
   <si>
     <t>master_3</t>
@@ -660,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,21 +680,21 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="4">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -717,27 +711,27 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>3</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>4</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -745,155 +739,139 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="B10" s="10">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="B15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="B18" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="D23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="G23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>11</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -919,7 +897,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -927,102 +905,102 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1034,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,7 +1025,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1056,7 +1034,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="11">
         <v>2</v>
@@ -1064,15 +1042,15 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="11">
         <v>4</v>
@@ -1080,82 +1058,82 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="11">
         <v>2</v>
@@ -1163,39 +1141,39 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="11">
         <v>2</v>
@@ -1203,79 +1181,79 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" s="11">
         <v>4</v>
@@ -1283,39 +1261,39 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="11">
         <v>1</v>
@@ -1323,39 +1301,39 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="11">
         <v>2</v>
@@ -1363,26 +1341,26 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1394,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,29 +1383,29 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
@@ -1436,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E4" s="4">
         <v>6</v>
@@ -1444,16 +1422,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E5" s="4">
         <v>5</v>
@@ -1461,16 +1439,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6" s="4">
         <v>4</v>
@@ -1478,13 +1456,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -1495,7 +1473,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -1512,16 +1490,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -1529,16 +1507,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>

--- a/Input/AHB_config.xlsx
+++ b/Input/AHB_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\AMBA_BUS\AHB_201\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\AMBA_BUS\AHB_GEN_201\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Decoder_config" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="49">
   <si>
     <t>AHB_Gen Decoder Setting</t>
   </si>
@@ -92,18 +92,6 @@
     <t>HIGH_ADDRESS</t>
   </si>
   <si>
-    <t>check a slave with the address range exactly equal 1K</t>
-  </si>
-  <si>
-    <t>check a slave has the start address right after the previous slave</t>
-  </si>
-  <si>
-    <t>check a slave with 4 registers</t>
-  </si>
-  <si>
-    <t>slave 4 &amp; 5 used to check dec_last signal</t>
-  </si>
-  <si>
     <t>ADDR_WIDTH</t>
   </si>
   <si>
@@ -132,12 +120,6 @@
   </si>
   <si>
     <t>0000_0CF0</t>
-  </si>
-  <si>
-    <t>0000_100F</t>
-  </si>
-  <si>
-    <t>0000_2403</t>
   </si>
   <si>
     <t>0000_24FF</t>
@@ -187,6 +169,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>0000_19FF</t>
+  </si>
+  <si>
+    <t>0000_2AFF</t>
   </si>
 </sst>
 </file>
@@ -656,7 +644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -680,13 +668,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3" s="4">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -803,7 +791,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -884,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,66 +907,58 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>21</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>24</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -986,10 +966,10 @@
         <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -997,10 +977,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1025,7 +1005,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1034,7 +1014,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B2" s="11">
         <v>2</v>
@@ -1042,7 +1022,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>4</v>
@@ -1050,7 +1030,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B5" s="11">
         <v>4</v>
@@ -1058,7 +1038,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>6</v>
@@ -1066,7 +1046,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>6</v>
@@ -1074,7 +1054,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>6</v>
@@ -1082,7 +1062,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>8</v>
@@ -1090,18 +1070,18 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B11" s="11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>6</v>
@@ -1109,7 +1089,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>6</v>
@@ -1117,7 +1097,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>5</v>
@@ -1125,7 +1105,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>9</v>
@@ -1133,7 +1113,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B17" s="11">
         <v>2</v>
@@ -1141,7 +1121,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>6</v>
@@ -1149,7 +1129,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>5</v>
@@ -1157,7 +1137,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>6</v>
@@ -1165,7 +1145,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>14</v>
@@ -1173,7 +1153,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B23" s="11">
         <v>2</v>
@@ -1181,7 +1161,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>5</v>
@@ -1189,7 +1169,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>6</v>
@@ -1197,7 +1177,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>6</v>
@@ -1205,7 +1185,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>15</v>
@@ -1213,7 +1193,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B29" s="11">
         <v>2</v>
@@ -1221,7 +1201,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>5</v>
@@ -1229,7 +1209,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>6</v>
@@ -1237,7 +1217,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>6</v>
@@ -1245,7 +1225,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>10</v>
@@ -1253,7 +1233,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B35" s="11">
         <v>4</v>
@@ -1261,7 +1241,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>6</v>
@@ -1269,7 +1249,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>5</v>
@@ -1277,7 +1257,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>6</v>
@@ -1285,7 +1265,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>16</v>
@@ -1293,7 +1273,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B41" s="11">
         <v>1</v>
@@ -1301,7 +1281,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>6</v>
@@ -1309,7 +1289,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>6</v>
@@ -1317,7 +1297,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>6</v>
@@ -1325,7 +1305,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>11</v>
@@ -1333,7 +1313,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B47" s="11">
         <v>2</v>
@@ -1341,7 +1321,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>6</v>
@@ -1349,7 +1329,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>6</v>
@@ -1357,7 +1337,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>5</v>
@@ -1383,12 +1363,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>3</v>
@@ -1397,7 +1377,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>13</v>
@@ -1414,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E4" s="4">
         <v>6</v>
@@ -1428,10 +1408,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E5" s="4">
         <v>5</v>
@@ -1442,13 +1422,13 @@
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E6" s="4">
         <v>4</v>
@@ -1459,10 +1439,10 @@
         <v>15</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -1493,13 +1473,13 @@
         <v>16</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -1513,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
